--- a/result/problem_1/erf/result_10.xlsx
+++ b/result/problem_1/erf/result_10.xlsx
@@ -473,16 +473,16 @@
         <v>11347531</v>
       </c>
       <c r="C2" t="n">
-        <v>9974</v>
+        <v>13489</v>
       </c>
       <c r="D2" t="n">
-        <v>10269</v>
+        <v>13784</v>
       </c>
       <c r="E2" t="n">
         <v>6750</v>
       </c>
       <c r="F2" t="n">
-        <v>3519</v>
+        <v>7034</v>
       </c>
       <c r="G2" t="n">
         <v>295</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>663</v>
+        <v>494</v>
       </c>
       <c r="E4" t="n">
         <v>1350</v>
@@ -542,16 +542,16 @@
         <v>11369802</v>
       </c>
       <c r="C5" t="n">
-        <v>31159</v>
+        <v>32308</v>
       </c>
       <c r="D5" t="n">
-        <v>33460</v>
+        <v>32554</v>
       </c>
       <c r="E5" t="n">
         <v>15750</v>
       </c>
       <c r="F5" t="n">
-        <v>17710</v>
+        <v>16804</v>
       </c>
       <c r="G5" t="n">
         <v>246</v>
@@ -565,16 +565,16 @@
         <v>11369803</v>
       </c>
       <c r="C6" t="n">
-        <v>32240</v>
+        <v>32554</v>
       </c>
       <c r="D6" t="n">
-        <v>33578</v>
+        <v>32790</v>
       </c>
       <c r="E6" t="n">
         <v>15750</v>
       </c>
       <c r="F6" t="n">
-        <v>17828</v>
+        <v>17040</v>
       </c>
       <c r="G6" t="n">
         <v>236</v>
@@ -588,16 +588,16 @@
         <v>11370167</v>
       </c>
       <c r="C7" t="n">
-        <v>32358</v>
+        <v>32790</v>
       </c>
       <c r="D7" t="n">
-        <v>33696</v>
+        <v>33026</v>
       </c>
       <c r="E7" t="n">
         <v>15750</v>
       </c>
       <c r="F7" t="n">
-        <v>17946</v>
+        <v>17276</v>
       </c>
       <c r="G7" t="n">
         <v>236</v>
@@ -611,16 +611,16 @@
         <v>11370547</v>
       </c>
       <c r="C8" t="n">
-        <v>26911</v>
+        <v>27176</v>
       </c>
       <c r="D8" t="n">
-        <v>30386</v>
+        <v>27694</v>
       </c>
       <c r="E8" t="n">
         <v>15750</v>
       </c>
       <c r="F8" t="n">
-        <v>14636</v>
+        <v>11944</v>
       </c>
       <c r="G8" t="n">
         <v>518</v>
@@ -657,16 +657,16 @@
         <v>11372989</v>
       </c>
       <c r="C10" t="n">
-        <v>2315</v>
+        <v>3526</v>
       </c>
       <c r="D10" t="n">
-        <v>4930</v>
+        <v>3992</v>
       </c>
       <c r="E10" t="n">
         <v>2250</v>
       </c>
       <c r="F10" t="n">
-        <v>2680</v>
+        <v>1742</v>
       </c>
       <c r="G10" t="n">
         <v>466</v>
@@ -680,16 +680,16 @@
         <v>11372990</v>
       </c>
       <c r="C11" t="n">
-        <v>1363</v>
+        <v>1622</v>
       </c>
       <c r="D11" t="n">
-        <v>3865</v>
+        <v>2098</v>
       </c>
       <c r="E11" t="n">
         <v>2250</v>
       </c>
       <c r="F11" t="n">
-        <v>1615</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>476</v>
@@ -703,16 +703,16 @@
         <v>11374093</v>
       </c>
       <c r="C12" t="n">
-        <v>16874</v>
+        <v>19452</v>
       </c>
       <c r="D12" t="n">
-        <v>17216</v>
+        <v>19794</v>
       </c>
       <c r="E12" t="n">
         <v>9000</v>
       </c>
       <c r="F12" t="n">
-        <v>8216</v>
+        <v>10794</v>
       </c>
       <c r="G12" t="n">
         <v>342</v>
@@ -726,16 +726,16 @@
         <v>11376541</v>
       </c>
       <c r="C13" t="n">
-        <v>23884</v>
+        <v>24440</v>
       </c>
       <c r="D13" t="n">
-        <v>26128</v>
+        <v>24988</v>
       </c>
       <c r="E13" t="n">
         <v>13500</v>
       </c>
       <c r="F13" t="n">
-        <v>12628</v>
+        <v>11488</v>
       </c>
       <c r="G13" t="n">
         <v>548</v>
@@ -752,13 +752,13 @@
         <v>23052</v>
       </c>
       <c r="D14" t="n">
-        <v>25854</v>
+        <v>23880</v>
       </c>
       <c r="E14" t="n">
         <v>13500</v>
       </c>
       <c r="F14" t="n">
-        <v>12354</v>
+        <v>10380</v>
       </c>
       <c r="G14" t="n">
         <v>828</v>
@@ -772,16 +772,16 @@
         <v>11376546</v>
       </c>
       <c r="C15" t="n">
-        <v>23328</v>
+        <v>23880</v>
       </c>
       <c r="D15" t="n">
-        <v>25578</v>
+        <v>24440</v>
       </c>
       <c r="E15" t="n">
         <v>13500</v>
       </c>
       <c r="F15" t="n">
-        <v>12078</v>
+        <v>10940</v>
       </c>
       <c r="G15" t="n">
         <v>560</v>
@@ -795,16 +795,16 @@
         <v>11376735</v>
       </c>
       <c r="C16" t="n">
-        <v>25003</v>
+        <v>26351</v>
       </c>
       <c r="D16" t="n">
-        <v>25298</v>
+        <v>26646</v>
       </c>
       <c r="E16" t="n">
         <v>13500</v>
       </c>
       <c r="F16" t="n">
-        <v>11798</v>
+        <v>13146</v>
       </c>
       <c r="G16" t="n">
         <v>295</v>
@@ -841,7 +841,7 @@
         <v>11380281</v>
       </c>
       <c r="C18" t="n">
-        <v>4579</v>
+        <v>4812</v>
       </c>
       <c r="D18" t="n">
         <v>5048</v>
@@ -910,16 +910,16 @@
         <v>11381030</v>
       </c>
       <c r="C21" t="n">
-        <v>3372</v>
+        <v>4557</v>
       </c>
       <c r="D21" t="n">
-        <v>3627</v>
+        <v>4812</v>
       </c>
       <c r="E21" t="n">
         <v>2250</v>
       </c>
       <c r="F21" t="n">
-        <v>1377</v>
+        <v>2562</v>
       </c>
       <c r="G21" t="n">
         <v>255</v>
@@ -933,16 +933,16 @@
         <v>11381563</v>
       </c>
       <c r="C22" t="n">
-        <v>2838</v>
+        <v>4282</v>
       </c>
       <c r="D22" t="n">
-        <v>3113</v>
+        <v>4557</v>
       </c>
       <c r="E22" t="n">
         <v>2250</v>
       </c>
       <c r="F22" t="n">
-        <v>863</v>
+        <v>2307</v>
       </c>
       <c r="G22" t="n">
         <v>275</v>
@@ -959,13 +959,13 @@
         <v>1104</v>
       </c>
       <c r="D23" t="n">
-        <v>3372</v>
+        <v>1622</v>
       </c>
       <c r="E23" t="n">
         <v>2250</v>
       </c>
       <c r="F23" t="n">
-        <v>1122</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>518</v>
@@ -982,13 +982,13 @@
         <v>14296</v>
       </c>
       <c r="D24" t="n">
-        <v>17813</v>
+        <v>14814</v>
       </c>
       <c r="E24" t="n">
         <v>9000</v>
       </c>
       <c r="F24" t="n">
-        <v>8813</v>
+        <v>5814</v>
       </c>
       <c r="G24" t="n">
         <v>518</v>
@@ -1002,16 +1002,16 @@
         <v>11411344</v>
       </c>
       <c r="C25" t="n">
-        <v>14555</v>
+        <v>14814</v>
       </c>
       <c r="D25" t="n">
-        <v>18072</v>
+        <v>15332</v>
       </c>
       <c r="E25" t="n">
         <v>9000</v>
       </c>
       <c r="F25" t="n">
-        <v>9072</v>
+        <v>6332</v>
       </c>
       <c r="G25" t="n">
         <v>518</v>
@@ -1025,16 +1025,16 @@
         <v>11411345</v>
       </c>
       <c r="C26" t="n">
-        <v>14814</v>
+        <v>15332</v>
       </c>
       <c r="D26" t="n">
-        <v>18331</v>
+        <v>15850</v>
       </c>
       <c r="E26" t="n">
         <v>9000</v>
       </c>
       <c r="F26" t="n">
-        <v>9331</v>
+        <v>6850</v>
       </c>
       <c r="G26" t="n">
         <v>518</v>
@@ -1048,16 +1048,16 @@
         <v>11411348</v>
       </c>
       <c r="C27" t="n">
-        <v>15073</v>
+        <v>15850</v>
       </c>
       <c r="D27" t="n">
-        <v>18590</v>
+        <v>16368</v>
       </c>
       <c r="E27" t="n">
         <v>9000</v>
       </c>
       <c r="F27" t="n">
-        <v>9590</v>
+        <v>7368</v>
       </c>
       <c r="G27" t="n">
         <v>518</v>
@@ -1071,16 +1071,16 @@
         <v>11411349</v>
       </c>
       <c r="C28" t="n">
-        <v>15332</v>
+        <v>16368</v>
       </c>
       <c r="D28" t="n">
-        <v>18849</v>
+        <v>16886</v>
       </c>
       <c r="E28" t="n">
         <v>9000</v>
       </c>
       <c r="F28" t="n">
-        <v>9849</v>
+        <v>7886</v>
       </c>
       <c r="G28" t="n">
         <v>518</v>
@@ -1094,16 +1094,16 @@
         <v>11411356</v>
       </c>
       <c r="C29" t="n">
-        <v>15591</v>
+        <v>16886</v>
       </c>
       <c r="D29" t="n">
-        <v>19108</v>
+        <v>17404</v>
       </c>
       <c r="E29" t="n">
         <v>9000</v>
       </c>
       <c r="F29" t="n">
-        <v>10108</v>
+        <v>8404</v>
       </c>
       <c r="G29" t="n">
         <v>518</v>
@@ -1117,16 +1117,16 @@
         <v>11411357</v>
       </c>
       <c r="C30" t="n">
-        <v>15850</v>
+        <v>17404</v>
       </c>
       <c r="D30" t="n">
-        <v>19367</v>
+        <v>17922</v>
       </c>
       <c r="E30" t="n">
         <v>9000</v>
       </c>
       <c r="F30" t="n">
-        <v>10367</v>
+        <v>8922</v>
       </c>
       <c r="G30" t="n">
         <v>518</v>
@@ -1140,16 +1140,16 @@
         <v>11411358</v>
       </c>
       <c r="C31" t="n">
-        <v>16109</v>
+        <v>17922</v>
       </c>
       <c r="D31" t="n">
-        <v>19626</v>
+        <v>18440</v>
       </c>
       <c r="E31" t="n">
         <v>9000</v>
       </c>
       <c r="F31" t="n">
-        <v>10626</v>
+        <v>9440</v>
       </c>
       <c r="G31" t="n">
         <v>518</v>
@@ -1163,16 +1163,16 @@
         <v>11417317</v>
       </c>
       <c r="C32" t="n">
-        <v>2548</v>
+        <v>3992</v>
       </c>
       <c r="D32" t="n">
-        <v>2838</v>
+        <v>4282</v>
       </c>
       <c r="E32" t="n">
         <v>2250</v>
       </c>
       <c r="F32" t="n">
-        <v>588</v>
+        <v>2032</v>
       </c>
       <c r="G32" t="n">
         <v>290</v>
@@ -1186,16 +1186,16 @@
         <v>11417318</v>
       </c>
       <c r="C33" t="n">
-        <v>1601</v>
+        <v>2098</v>
       </c>
       <c r="D33" t="n">
-        <v>4103</v>
+        <v>2574</v>
       </c>
       <c r="E33" t="n">
         <v>2250</v>
       </c>
       <c r="F33" t="n">
-        <v>1853</v>
+        <v>324</v>
       </c>
       <c r="G33" t="n">
         <v>476</v>
@@ -1209,16 +1209,16 @@
         <v>11417319</v>
       </c>
       <c r="C34" t="n">
-        <v>1839</v>
+        <v>2574</v>
       </c>
       <c r="D34" t="n">
-        <v>4341</v>
+        <v>3050</v>
       </c>
       <c r="E34" t="n">
         <v>2250</v>
       </c>
       <c r="F34" t="n">
-        <v>2091</v>
+        <v>800</v>
       </c>
       <c r="G34" t="n">
         <v>476</v>
@@ -1232,16 +1232,16 @@
         <v>11417321</v>
       </c>
       <c r="C35" t="n">
-        <v>2077</v>
+        <v>3050</v>
       </c>
       <c r="D35" t="n">
-        <v>4579</v>
+        <v>3526</v>
       </c>
       <c r="E35" t="n">
         <v>2250</v>
       </c>
       <c r="F35" t="n">
-        <v>2329</v>
+        <v>1276</v>
       </c>
       <c r="G35" t="n">
         <v>476</v>
@@ -1255,16 +1255,16 @@
         <v>11420907</v>
       </c>
       <c r="C36" t="n">
-        <v>32940</v>
+        <v>33954</v>
       </c>
       <c r="D36" t="n">
-        <v>33146</v>
+        <v>34160</v>
       </c>
       <c r="E36" t="n">
         <v>15750</v>
       </c>
       <c r="F36" t="n">
-        <v>17396</v>
+        <v>18410</v>
       </c>
       <c r="G36" t="n">
         <v>206</v>
@@ -1278,16 +1278,16 @@
         <v>11420908</v>
       </c>
       <c r="C37" t="n">
-        <v>29341</v>
+        <v>31596</v>
       </c>
       <c r="D37" t="n">
-        <v>33337</v>
+        <v>31978</v>
       </c>
       <c r="E37" t="n">
         <v>15750</v>
       </c>
       <c r="F37" t="n">
-        <v>17587</v>
+        <v>16228</v>
       </c>
       <c r="G37" t="n">
         <v>382</v>
@@ -1304,13 +1304,13 @@
         <v>20470</v>
       </c>
       <c r="D38" t="n">
-        <v>22247</v>
+        <v>21100</v>
       </c>
       <c r="E38" t="n">
         <v>11250</v>
       </c>
       <c r="F38" t="n">
-        <v>10997</v>
+        <v>9850</v>
       </c>
       <c r="G38" t="n">
         <v>630</v>
@@ -1324,16 +1324,16 @@
         <v>11424412</v>
       </c>
       <c r="C39" t="n">
-        <v>20785</v>
+        <v>21100</v>
       </c>
       <c r="D39" t="n">
-        <v>22562</v>
+        <v>21730</v>
       </c>
       <c r="E39" t="n">
         <v>11250</v>
       </c>
       <c r="F39" t="n">
-        <v>11312</v>
+        <v>10480</v>
       </c>
       <c r="G39" t="n">
         <v>630</v>
@@ -1347,16 +1347,16 @@
         <v>11424413</v>
       </c>
       <c r="C40" t="n">
-        <v>21590</v>
+        <v>22710</v>
       </c>
       <c r="D40" t="n">
-        <v>21932</v>
+        <v>23052</v>
       </c>
       <c r="E40" t="n">
         <v>11250</v>
       </c>
       <c r="F40" t="n">
-        <v>10682</v>
+        <v>11802</v>
       </c>
       <c r="G40" t="n">
         <v>342</v>
@@ -1370,16 +1370,16 @@
         <v>11424415</v>
       </c>
       <c r="C41" t="n">
-        <v>21100</v>
+        <v>21730</v>
       </c>
       <c r="D41" t="n">
-        <v>22877</v>
+        <v>22360</v>
       </c>
       <c r="E41" t="n">
         <v>11250</v>
       </c>
       <c r="F41" t="n">
-        <v>11627</v>
+        <v>11110</v>
       </c>
       <c r="G41" t="n">
         <v>630</v>
@@ -1393,16 +1393,16 @@
         <v>11425987</v>
       </c>
       <c r="C42" t="n">
-        <v>9478</v>
+        <v>12824</v>
       </c>
       <c r="D42" t="n">
-        <v>14040</v>
+        <v>13162</v>
       </c>
       <c r="E42" t="n">
         <v>6750</v>
       </c>
       <c r="F42" t="n">
-        <v>7290</v>
+        <v>6412</v>
       </c>
       <c r="G42" t="n">
         <v>338</v>
@@ -1416,16 +1416,16 @@
         <v>11425996</v>
       </c>
       <c r="C43" t="n">
-        <v>9133</v>
+        <v>12479</v>
       </c>
       <c r="D43" t="n">
-        <v>9478</v>
+        <v>12824</v>
       </c>
       <c r="E43" t="n">
         <v>6750</v>
       </c>
       <c r="F43" t="n">
-        <v>2728</v>
+        <v>6074</v>
       </c>
       <c r="G43" t="n">
         <v>345</v>
@@ -1439,16 +1439,16 @@
         <v>11426059</v>
       </c>
       <c r="C44" t="n">
-        <v>27688</v>
+        <v>28730</v>
       </c>
       <c r="D44" t="n">
-        <v>31159</v>
+        <v>29240</v>
       </c>
       <c r="E44" t="n">
         <v>15750</v>
       </c>
       <c r="F44" t="n">
-        <v>15409</v>
+        <v>13490</v>
       </c>
       <c r="G44" t="n">
         <v>510</v>
@@ -1465,13 +1465,13 @@
         <v>26646</v>
       </c>
       <c r="D45" t="n">
-        <v>30127</v>
+        <v>27176</v>
       </c>
       <c r="E45" t="n">
         <v>15750</v>
       </c>
       <c r="F45" t="n">
-        <v>14377</v>
+        <v>11426</v>
       </c>
       <c r="G45" t="n">
         <v>530</v>
@@ -1485,16 +1485,16 @@
         <v>11426061</v>
       </c>
       <c r="C46" t="n">
-        <v>27170</v>
+        <v>27694</v>
       </c>
       <c r="D46" t="n">
-        <v>30645</v>
+        <v>28212</v>
       </c>
       <c r="E46" t="n">
         <v>15750</v>
       </c>
       <c r="F46" t="n">
-        <v>14895</v>
+        <v>12462</v>
       </c>
       <c r="G46" t="n">
         <v>518</v>
@@ -1508,16 +1508,16 @@
         <v>11426062</v>
       </c>
       <c r="C47" t="n">
-        <v>27429</v>
+        <v>28212</v>
       </c>
       <c r="D47" t="n">
-        <v>30904</v>
+        <v>28730</v>
       </c>
       <c r="E47" t="n">
         <v>15750</v>
       </c>
       <c r="F47" t="n">
-        <v>15154</v>
+        <v>12980</v>
       </c>
       <c r="G47" t="n">
         <v>518</v>
@@ -1531,16 +1531,16 @@
         <v>11426063</v>
       </c>
       <c r="C48" t="n">
-        <v>28187</v>
+        <v>29728</v>
       </c>
       <c r="D48" t="n">
-        <v>31764</v>
+        <v>30204</v>
       </c>
       <c r="E48" t="n">
         <v>15750</v>
       </c>
       <c r="F48" t="n">
-        <v>16014</v>
+        <v>14454</v>
       </c>
       <c r="G48" t="n">
         <v>476</v>
@@ -1554,16 +1554,16 @@
         <v>11426064</v>
       </c>
       <c r="C49" t="n">
-        <v>28425</v>
+        <v>30204</v>
       </c>
       <c r="D49" t="n">
-        <v>32002</v>
+        <v>30680</v>
       </c>
       <c r="E49" t="n">
         <v>15750</v>
       </c>
       <c r="F49" t="n">
-        <v>16252</v>
+        <v>14930</v>
       </c>
       <c r="G49" t="n">
         <v>476</v>
@@ -1577,16 +1577,16 @@
         <v>11430973</v>
       </c>
       <c r="C50" t="n">
-        <v>27943</v>
+        <v>29240</v>
       </c>
       <c r="D50" t="n">
-        <v>31526</v>
+        <v>29728</v>
       </c>
       <c r="E50" t="n">
         <v>15750</v>
       </c>
       <c r="F50" t="n">
-        <v>15776</v>
+        <v>13978</v>
       </c>
       <c r="G50" t="n">
         <v>488</v>
@@ -1600,7 +1600,7 @@
         <v>11431184</v>
       </c>
       <c r="C51" t="n">
-        <v>663</v>
+        <v>832</v>
       </c>
       <c r="D51" t="n">
         <v>1064</v>
@@ -1623,10 +1623,10 @@
         <v>11431190</v>
       </c>
       <c r="C52" t="n">
-        <v>247</v>
+        <v>494</v>
       </c>
       <c r="D52" t="n">
-        <v>948</v>
+        <v>832</v>
       </c>
       <c r="E52" t="n">
         <v>1350</v>
@@ -1646,16 +1646,16 @@
         <v>11433880</v>
       </c>
       <c r="C53" t="n">
-        <v>34533</v>
+        <v>34906</v>
       </c>
       <c r="D53" t="n">
-        <v>34878</v>
+        <v>35251</v>
       </c>
       <c r="E53" t="n">
         <v>18000</v>
       </c>
       <c r="F53" t="n">
-        <v>16878</v>
+        <v>17251</v>
       </c>
       <c r="G53" t="n">
         <v>345</v>
@@ -1669,16 +1669,16 @@
         <v>11433882</v>
       </c>
       <c r="C54" t="n">
-        <v>34351</v>
+        <v>34542</v>
       </c>
       <c r="D54" t="n">
-        <v>35251</v>
+        <v>34906</v>
       </c>
       <c r="E54" t="n">
         <v>18000</v>
       </c>
       <c r="F54" t="n">
-        <v>17251</v>
+        <v>16906</v>
       </c>
       <c r="G54" t="n">
         <v>364</v>
@@ -1695,13 +1695,13 @@
         <v>34160</v>
       </c>
       <c r="D55" t="n">
-        <v>35069</v>
+        <v>34542</v>
       </c>
       <c r="E55" t="n">
         <v>18000</v>
       </c>
       <c r="F55" t="n">
-        <v>17069</v>
+        <v>16542</v>
       </c>
       <c r="G55" t="n">
         <v>382</v>
@@ -1715,16 +1715,16 @@
         <v>11434338</v>
       </c>
       <c r="C56" t="n">
-        <v>9647</v>
+        <v>13162</v>
       </c>
       <c r="D56" t="n">
-        <v>9974</v>
+        <v>13489</v>
       </c>
       <c r="E56" t="n">
         <v>6750</v>
       </c>
       <c r="F56" t="n">
-        <v>3224</v>
+        <v>6739</v>
       </c>
       <c r="G56" t="n">
         <v>327</v>
@@ -1738,16 +1738,16 @@
         <v>11434343</v>
       </c>
       <c r="C57" t="n">
-        <v>10269</v>
+        <v>13784</v>
       </c>
       <c r="D57" t="n">
-        <v>14180</v>
+        <v>14064</v>
       </c>
       <c r="E57" t="n">
         <v>6750</v>
       </c>
       <c r="F57" t="n">
-        <v>7430</v>
+        <v>7314</v>
       </c>
       <c r="G57" t="n">
         <v>280</v>
@@ -1761,7 +1761,7 @@
         <v>11435148</v>
       </c>
       <c r="C58" t="n">
-        <v>13755</v>
+        <v>14064</v>
       </c>
       <c r="D58" t="n">
         <v>14296</v>
@@ -1807,16 +1807,16 @@
         <v>11476319</v>
       </c>
       <c r="C60" t="n">
-        <v>28663</v>
+        <v>30680</v>
       </c>
       <c r="D60" t="n">
-        <v>32240</v>
+        <v>31156</v>
       </c>
       <c r="E60" t="n">
         <v>15750</v>
       </c>
       <c r="F60" t="n">
-        <v>16490</v>
+        <v>15406</v>
       </c>
       <c r="G60" t="n">
         <v>476</v>
@@ -1830,16 +1830,16 @@
         <v>11478284</v>
       </c>
       <c r="C61" t="n">
-        <v>24676</v>
+        <v>26024</v>
       </c>
       <c r="D61" t="n">
-        <v>25003</v>
+        <v>26351</v>
       </c>
       <c r="E61" t="n">
         <v>13500</v>
       </c>
       <c r="F61" t="n">
-        <v>11503</v>
+        <v>12851</v>
       </c>
       <c r="G61" t="n">
         <v>327</v>
@@ -1853,16 +1853,16 @@
         <v>11482027</v>
       </c>
       <c r="C62" t="n">
-        <v>16368</v>
+        <v>18440</v>
       </c>
       <c r="D62" t="n">
-        <v>19885</v>
+        <v>18958</v>
       </c>
       <c r="E62" t="n">
         <v>9000</v>
       </c>
       <c r="F62" t="n">
-        <v>10885</v>
+        <v>9958</v>
       </c>
       <c r="G62" t="n">
         <v>518</v>
@@ -1876,16 +1876,16 @@
         <v>11482031</v>
       </c>
       <c r="C63" t="n">
-        <v>16627</v>
+        <v>18958</v>
       </c>
       <c r="D63" t="n">
-        <v>20132</v>
+        <v>19452</v>
       </c>
       <c r="E63" t="n">
         <v>9000</v>
       </c>
       <c r="F63" t="n">
-        <v>11132</v>
+        <v>10452</v>
       </c>
       <c r="G63" t="n">
         <v>494</v>
@@ -1899,16 +1899,16 @@
         <v>11484806</v>
       </c>
       <c r="C64" t="n">
-        <v>21415</v>
+        <v>22360</v>
       </c>
       <c r="D64" t="n">
-        <v>23052</v>
+        <v>22710</v>
       </c>
       <c r="E64" t="n">
         <v>11250</v>
       </c>
       <c r="F64" t="n">
-        <v>11802</v>
+        <v>11460</v>
       </c>
       <c r="G64" t="n">
         <v>350</v>
@@ -1922,16 +1922,16 @@
         <v>11486534</v>
       </c>
       <c r="C65" t="n">
-        <v>8636</v>
+        <v>11485</v>
       </c>
       <c r="D65" t="n">
-        <v>13508</v>
+        <v>11985</v>
       </c>
       <c r="E65" t="n">
         <v>6750</v>
       </c>
       <c r="F65" t="n">
-        <v>6758</v>
+        <v>5235</v>
       </c>
       <c r="G65" t="n">
         <v>500</v>
@@ -1945,16 +1945,16 @@
         <v>11486535</v>
       </c>
       <c r="C66" t="n">
-        <v>8886</v>
+        <v>11985</v>
       </c>
       <c r="D66" t="n">
-        <v>13755</v>
+        <v>12479</v>
       </c>
       <c r="E66" t="n">
         <v>6750</v>
       </c>
       <c r="F66" t="n">
-        <v>7005</v>
+        <v>5729</v>
       </c>
       <c r="G66" t="n">
         <v>494</v>
@@ -1971,13 +1971,13 @@
         <v>5787</v>
       </c>
       <c r="D67" t="n">
-        <v>10668</v>
+        <v>6305</v>
       </c>
       <c r="E67" t="n">
         <v>6750</v>
       </c>
       <c r="F67" t="n">
-        <v>3918</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>518</v>
@@ -1991,16 +1991,16 @@
         <v>11486541</v>
       </c>
       <c r="C68" t="n">
-        <v>6046</v>
+        <v>6305</v>
       </c>
       <c r="D68" t="n">
-        <v>10927</v>
+        <v>6823</v>
       </c>
       <c r="E68" t="n">
         <v>6750</v>
       </c>
       <c r="F68" t="n">
-        <v>4177</v>
+        <v>73</v>
       </c>
       <c r="G68" t="n">
         <v>518</v>
@@ -2014,16 +2014,16 @@
         <v>11486542</v>
       </c>
       <c r="C69" t="n">
-        <v>6305</v>
+        <v>6823</v>
       </c>
       <c r="D69" t="n">
-        <v>11186</v>
+        <v>7341</v>
       </c>
       <c r="E69" t="n">
         <v>6750</v>
       </c>
       <c r="F69" t="n">
-        <v>4436</v>
+        <v>591</v>
       </c>
       <c r="G69" t="n">
         <v>518</v>
@@ -2037,16 +2037,16 @@
         <v>11486543</v>
       </c>
       <c r="C70" t="n">
-        <v>6564</v>
+        <v>7341</v>
       </c>
       <c r="D70" t="n">
-        <v>11445</v>
+        <v>7859</v>
       </c>
       <c r="E70" t="n">
         <v>6750</v>
       </c>
       <c r="F70" t="n">
-        <v>4695</v>
+        <v>1109</v>
       </c>
       <c r="G70" t="n">
         <v>518</v>
@@ -2060,16 +2060,16 @@
         <v>11486544</v>
       </c>
       <c r="C71" t="n">
-        <v>6823</v>
+        <v>7859</v>
       </c>
       <c r="D71" t="n">
-        <v>11704</v>
+        <v>8377</v>
       </c>
       <c r="E71" t="n">
         <v>6750</v>
       </c>
       <c r="F71" t="n">
-        <v>4954</v>
+        <v>1627</v>
       </c>
       <c r="G71" t="n">
         <v>518</v>
@@ -2083,16 +2083,16 @@
         <v>11486935</v>
       </c>
       <c r="C72" t="n">
-        <v>7082</v>
+        <v>8377</v>
       </c>
       <c r="D72" t="n">
-        <v>11963</v>
+        <v>8895</v>
       </c>
       <c r="E72" t="n">
         <v>6750</v>
       </c>
       <c r="F72" t="n">
-        <v>5213</v>
+        <v>2145</v>
       </c>
       <c r="G72" t="n">
         <v>518</v>
@@ -2106,16 +2106,16 @@
         <v>11486936</v>
       </c>
       <c r="C73" t="n">
-        <v>7341</v>
+        <v>8895</v>
       </c>
       <c r="D73" t="n">
-        <v>12222</v>
+        <v>9413</v>
       </c>
       <c r="E73" t="n">
         <v>6750</v>
       </c>
       <c r="F73" t="n">
-        <v>5472</v>
+        <v>2663</v>
       </c>
       <c r="G73" t="n">
         <v>518</v>
@@ -2129,16 +2129,16 @@
         <v>11486937</v>
       </c>
       <c r="C74" t="n">
-        <v>7600</v>
+        <v>9413</v>
       </c>
       <c r="D74" t="n">
-        <v>12481</v>
+        <v>9931</v>
       </c>
       <c r="E74" t="n">
         <v>6750</v>
       </c>
       <c r="F74" t="n">
-        <v>5731</v>
+        <v>3181</v>
       </c>
       <c r="G74" t="n">
         <v>518</v>
@@ -2152,16 +2152,16 @@
         <v>11486938</v>
       </c>
       <c r="C75" t="n">
-        <v>7859</v>
+        <v>9931</v>
       </c>
       <c r="D75" t="n">
-        <v>12740</v>
+        <v>10449</v>
       </c>
       <c r="E75" t="n">
         <v>6750</v>
       </c>
       <c r="F75" t="n">
-        <v>5990</v>
+        <v>3699</v>
       </c>
       <c r="G75" t="n">
         <v>518</v>
@@ -2175,16 +2175,16 @@
         <v>11486939</v>
       </c>
       <c r="C76" t="n">
-        <v>8118</v>
+        <v>10449</v>
       </c>
       <c r="D76" t="n">
-        <v>12999</v>
+        <v>10967</v>
       </c>
       <c r="E76" t="n">
         <v>6750</v>
       </c>
       <c r="F76" t="n">
-        <v>6249</v>
+        <v>4217</v>
       </c>
       <c r="G76" t="n">
         <v>518</v>
@@ -2198,16 +2198,16 @@
         <v>11486940</v>
       </c>
       <c r="C77" t="n">
-        <v>8377</v>
+        <v>10967</v>
       </c>
       <c r="D77" t="n">
-        <v>13258</v>
+        <v>11485</v>
       </c>
       <c r="E77" t="n">
         <v>6750</v>
       </c>
       <c r="F77" t="n">
-        <v>6508</v>
+        <v>4735</v>
       </c>
       <c r="G77" t="n">
         <v>518</v>
@@ -2221,16 +2221,16 @@
         <v>11490482</v>
       </c>
       <c r="C78" t="n">
-        <v>17216</v>
+        <v>19794</v>
       </c>
       <c r="D78" t="n">
-        <v>20301</v>
+        <v>20132</v>
       </c>
       <c r="E78" t="n">
         <v>9000</v>
       </c>
       <c r="F78" t="n">
-        <v>11301</v>
+        <v>11132</v>
       </c>
       <c r="G78" t="n">
         <v>338</v>
@@ -2244,7 +2244,7 @@
         <v>11490483</v>
       </c>
       <c r="C79" t="n">
-        <v>17385</v>
+        <v>20132</v>
       </c>
       <c r="D79" t="n">
         <v>20470</v>
@@ -2267,16 +2267,16 @@
         <v>11492850</v>
       </c>
       <c r="C80" t="n">
-        <v>32476</v>
+        <v>33026</v>
       </c>
       <c r="D80" t="n">
-        <v>33812</v>
+        <v>33258</v>
       </c>
       <c r="E80" t="n">
         <v>15750</v>
       </c>
       <c r="F80" t="n">
-        <v>18062</v>
+        <v>17508</v>
       </c>
       <c r="G80" t="n">
         <v>232</v>
@@ -2290,16 +2290,16 @@
         <v>11492851</v>
       </c>
       <c r="C81" t="n">
-        <v>32592</v>
+        <v>33258</v>
       </c>
       <c r="D81" t="n">
-        <v>33928</v>
+        <v>33490</v>
       </c>
       <c r="E81" t="n">
         <v>15750</v>
       </c>
       <c r="F81" t="n">
-        <v>18178</v>
+        <v>17740</v>
       </c>
       <c r="G81" t="n">
         <v>232</v>
@@ -2313,16 +2313,16 @@
         <v>11492852</v>
       </c>
       <c r="C82" t="n">
-        <v>32708</v>
+        <v>33490</v>
       </c>
       <c r="D82" t="n">
-        <v>34044</v>
+        <v>33722</v>
       </c>
       <c r="E82" t="n">
         <v>15750</v>
       </c>
       <c r="F82" t="n">
-        <v>18294</v>
+        <v>17972</v>
       </c>
       <c r="G82" t="n">
         <v>232</v>
@@ -2336,16 +2336,16 @@
         <v>11492853</v>
       </c>
       <c r="C83" t="n">
-        <v>32824</v>
+        <v>33722</v>
       </c>
       <c r="D83" t="n">
-        <v>34160</v>
+        <v>33954</v>
       </c>
       <c r="E83" t="n">
         <v>15750</v>
       </c>
       <c r="F83" t="n">
-        <v>18410</v>
+        <v>18204</v>
       </c>
       <c r="G83" t="n">
         <v>232</v>
@@ -2359,16 +2359,16 @@
         <v>11492854</v>
       </c>
       <c r="C84" t="n">
-        <v>29532</v>
+        <v>31978</v>
       </c>
       <c r="D84" t="n">
-        <v>29862</v>
+        <v>32308</v>
       </c>
       <c r="E84" t="n">
         <v>15750</v>
       </c>
       <c r="F84" t="n">
-        <v>14112</v>
+        <v>16558</v>
       </c>
       <c r="G84" t="n">
         <v>330</v>
@@ -2382,16 +2382,16 @@
         <v>11493875</v>
       </c>
       <c r="C85" t="n">
-        <v>28901</v>
+        <v>31156</v>
       </c>
       <c r="D85" t="n">
-        <v>29341</v>
+        <v>31596</v>
       </c>
       <c r="E85" t="n">
         <v>15750</v>
       </c>
       <c r="F85" t="n">
-        <v>13591</v>
+        <v>15846</v>
       </c>
       <c r="G85" t="n">
         <v>440</v>
@@ -2405,16 +2405,16 @@
         <v>11496906</v>
       </c>
       <c r="C86" t="n">
-        <v>24158</v>
+        <v>24988</v>
       </c>
       <c r="D86" t="n">
-        <v>26387</v>
+        <v>25506</v>
       </c>
       <c r="E86" t="n">
         <v>13500</v>
       </c>
       <c r="F86" t="n">
-        <v>12887</v>
+        <v>12006</v>
       </c>
       <c r="G86" t="n">
         <v>518</v>
@@ -2428,16 +2428,16 @@
         <v>11496907</v>
       </c>
       <c r="C87" t="n">
-        <v>24417</v>
+        <v>25506</v>
       </c>
       <c r="D87" t="n">
-        <v>26646</v>
+        <v>26024</v>
       </c>
       <c r="E87" t="n">
         <v>13500</v>
       </c>
       <c r="F87" t="n">
-        <v>13146</v>
+        <v>12524</v>
       </c>
       <c r="G87" t="n">
         <v>518</v>
